--- a/newRange/1000/Lh-x-process/9.2/9.2jx01处理Lh.xlsx
+++ b/newRange/1000/Lh-x-process/9.2/9.2jx01处理Lh.xlsx
@@ -65,18 +65,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,9 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,29 +135,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,16 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,7 +166,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,11 +187,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,15 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +218,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,73 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,91 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,6 +413,60 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -423,21 +477,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,50 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.352712701810255</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0.01405310164773</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>-0.0513628668382911</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>-0.101901062378475</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>-0.0467411474512637</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>-0.0551303604241132</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>-0.0913218817926222</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>-0.0983158106506578</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>-0.107111035510989</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>-22.6457429312574</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0.236891967800383</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>-0.0195738767983633</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:6">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>-0.0257302279619793</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:6">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0.0255023278818617</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0.00656185064820001</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:6">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0.00218682967779139</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:6">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0.692214059289465</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>-0.678931959890096</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:6">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0.00212560820892986</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:6">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>-19.0544400285384</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:6">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0.81166430379531</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-0.00371963494276642</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:6">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>-0.000378565087758786</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:6">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0.0255948596554184</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:6">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>-0.0143385777551793</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:6">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0.0508458392659306</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:6">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0.0220738315250122</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:6">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.0656443094635063</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:6">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0.0490455029914234</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:6">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>-16.1246622380686</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:6">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.729146796531009</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>-0.0135341271713748</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0.00783818148288999</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:6">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0.0184797566815224</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:6">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0.0235824055814545</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:6">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.0328981999164155</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:6">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0.0425354271878312</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:6">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0.0439684060690973</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:6">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0.0476287410398392</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:6">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>258.323973903322</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:6">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0.902236863384907</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:6">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>-0.461406002851378</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:6">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>-0.454970049912238</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:6">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>-0.403587266970207</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:6">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>-0.326457096650156</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>-0.322046768636833</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:6">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>-0.282063732265376</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:6">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>-0.274195023621705</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:6">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>-0.246409524963258</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:6">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>-22.9148123502187</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:6">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>4.76549594870366</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:6">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0.149039955917033</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:6">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>-0.0132415257607477</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:6">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>-0.0214543839853197</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:6">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0.349213579754952</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:6">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>-0.394065889396906</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:6">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>-0.0169125402090832</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:6">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>-0.01399043700096</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:6">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>-0.013570514786327</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:6">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>-21.1569613851281</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:6">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>4.69907182298789</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:6">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.192837786458344</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:6">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>-0.0162156282485076</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:6">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>-0.0107937483618069</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:6">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>-0.00484338726051425</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:6">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>-0.00281142128817123</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:6">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>-0.00737456295983788</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:6">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>-0.00823720680753824</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:6">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>-0.00667034214268558</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:6">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>-18.6941700684845</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:6">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>4.53046675123956</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:6">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0.201906126636481</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:6">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0.00641451561009519</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:6">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0.00240967688697095</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:6">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0.00220578990451828</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:6">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0.00800495554893582</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:6">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0.00197122838790657</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:6">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0.0120977135626561</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:6">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0.00301533604623646</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:6">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>70.4215062087372</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:6">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>3.24859998400001</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:6">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>-0.213422880013645</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:6">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>-0.416585749279369</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:6">
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>-0.39959971971053</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:6">
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>-0.355325359131031</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:6">
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>-0.337138850547487</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:6">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>-0.31444692377243</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:6">
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>-0.321382082466228</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:6">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>-0.319792139373971</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:6">
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>-21.4594551727275</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:6">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>12.7389756875481</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:6">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>0.969266317161157</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:6">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>-0.0978315910994993</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:6">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>-0.133005981623567</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:6">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>-0.10434143927365</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:6">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>-0.0753369814421541</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:6">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>-0.047863028080604</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:6">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>-0.0450503423568479</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:6">
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>-0.0390651440982977</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:6">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>-25.5381438355378</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:6">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>12.6950289486829</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:6">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1.39170858045574</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:6">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0.157128386107242</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:6">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>-2.23717221301543e-5</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:6">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>-0.0178648593746683</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:6">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>-0.0210381307777124</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:6">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>-0.0227867999755806</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:6">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>-0.0208828313059577</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:6">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>-0.0196542601741103</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:6">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>-24.3854281928084</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:6">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>12.2705265352721</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:6">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>1.37747984833315</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:6">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0.15423491540532</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:6">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>0.0175392979577536</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:6">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>-0.0118549172175198</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:6">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>-0.0121330460830231</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:6">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0.566457613833291</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:6">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>-0.592806416598051</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:6">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>-0.0110560699223332</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:6">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>23.359213345124</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:6">
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>5.41390107677569</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:6">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>-0.456242754500896</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:6">
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>-0.632150750107148</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:6">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>-0.680454129938976</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:6">
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>-0.312680555588555</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:6">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>-0.595241893571781</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:6">
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>-0.374262698288523</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:6">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>-0.318953172640974</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:6">
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>-0.225216257312441</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:6">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>-18.8863147332861</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:6">
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>15.6551300015342</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:6">
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>1.06321271760817</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:6">
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>-0.187888539999436</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:6">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>-0.300125620955108</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:6">
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>-0.101207548438426</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:6">
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>-0.363157465741963</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:6">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>-0.208473742561317</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:6">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>-0.114560607904971</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:6">
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>-0.106290007145032</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:6">
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>-25.6694378245057</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:6">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>18.7800949745061</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:6">
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>3.42285266890995</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:6">
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>0.679528711317934</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:6">
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0.113897929009771</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:6">
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0.011042073972805</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:6">
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>-0.0533837227159286</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:6">
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>-0.0323392726476418</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:6">
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>-0.0316786930975889</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:6">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0.0279588869758296</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:6">
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>-29.0307868485555</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:6">
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>17.6010150393171</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:6">
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>3.28141003770364</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:6">
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0.672942714197334</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:6">
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0.131096028254408</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:6">
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0.0520675268191918</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:6">
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>-0.0644622759246935</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:6">
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>-0.0166335678696938</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:6">
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0.0410659559545136</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:6">
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>-0.0911686161215772</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:6">
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>-1.71484872131975</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:6">
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>6.73571736551391</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:6">
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>-0.0448674485800744</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:6">
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>-0.622892335980114</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:6">
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>-0.696507968966578</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:6">
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>-0.626577795002692</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:6">
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>-0.457377060405632</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:6">
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>-0.365610141058784</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:6">
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>-0.341373911750085</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:6">
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>-0.309844074082611</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:6">
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>-12.5986971661365</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:6">
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>18.8807808065644</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:6">
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2.0470268235042</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:6">
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>0.0620597514338293</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:6">
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>-0.351630357292185</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:6">
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>-0.275529100570939</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:6">
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>-0.275182742555106</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:6">
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>-0.221656980550778</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:6">
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>-0.211731927277411</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:6">
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>-0.169874615714417</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:6">
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>-26.7186907025968</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:6">
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>21.6048838061835</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:6">
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>2.70642868033876</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:6">
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>0.21870869799328</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:6">
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>-0.112915113811649</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:6">
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>-0.278942524496973</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:6">
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>-0.188071978551988</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:6">
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>-0.224454367263745</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:6">
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>-0.141311046382432</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:6">
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>-0.112479777245474</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:6">
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>-28.3988419316267</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:6">
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>21.6455535895288</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:6">
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>4.90361716497898</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:6">
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1.09566478281428</v>
       </c>
     </row>
-    <row r="245" hidden="1" spans="1:6">
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0.158007984453341</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:6">
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>-0.0239713496639827</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:6">
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>-0.0304697730561669</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:6">
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0.645489762515883</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:6">
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>-0.76200131658006</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:6">
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>-0.047662020350979</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:6">
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>-14.1400318383799</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:6">
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>7.43698296132483</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:6">
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>0.0664385105971629</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:6">
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>-0.811700764069078</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:6">
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>-0.841219718712811</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:6">
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>-0.701289636068394</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:6">
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>-0.52212910365226</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:6">
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>-0.419594368277139</v>
       </c>
     </row>
-    <row r="259" hidden="1" spans="1:6">
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>-0.372137475035941</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:6">
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>-0.31878985526579</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:6">
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>-17.2856159419126</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:6">
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>15.935491503203</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:6">
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>2.73080404921533</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:6">
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>0.320599149944956</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:6">
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>-0.2453091778184</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:6">
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>-0.352124053605651</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:6">
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>0.88337199619502</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:6">
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>-1.45217768121201</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:6">
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>-0.247645191901735</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:6">
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>-0.227612137565921</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:6">
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>-23.2622806301502</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:6">
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>22.8690832797426</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:6">
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>3.49216436609863</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:6">
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>0.623314308302986</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:6">
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1.1484448577475</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:6">
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>-1.39299201065619</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:6">
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>-0.241142472865037</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:6">
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>-0.19523789875094</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:6">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>-0.965271495742443</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:6">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0.639210085060296</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:6">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>-29.1258400651536</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:6">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>25.5666276190123</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:6">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>4.56643446775583</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:6">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>0.888417930799028</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:6">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>0.085043216240357</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:6">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>-0.112771421971746</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:6">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>-0.159721588462447</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:6">
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>1.04896898786936</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:6">
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>-1.29073862716666</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:6">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>-0.0987216201592403</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:6">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>-27.5308753375408</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:6">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>8.83577786028297</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:6">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>0.279526229490872</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:6">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0.15560831572842</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:6">
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>-0.403377492481678</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:6">
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>-0.222932009704346</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:6">
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>-0.182121343072466</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:6">
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>-0.151273933595673</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:6">
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>-0.157521856414067</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:6">
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>-0.118417401880483</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:6">
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>-18.1307365933199</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:6">
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>15.263863936294</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:6">
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>3.26072972741812</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:6">
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>0.592844496526541</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:6">
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>-0.0203918147114982</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:6">
+    <row r="326" spans="1:6">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>-0.116419529085099</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:6">
+    <row r="327" spans="1:6">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>-0.160035144657069</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:6">
+    <row r="328" spans="1:6">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>-0.177342528888782</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:6">
+    <row r="329" spans="1:6">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>-0.183094206947837</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:6">
+    <row r="330" spans="1:6">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>-0.179653071696361</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:6">
+    <row r="331" spans="1:6">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>-22.6875902335811</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:6">
+    <row r="332" spans="1:6">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>28.4480340337097</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:6">
+    <row r="333" spans="1:6">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>5.24522909056959</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:6">
+    <row r="334" spans="1:6">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>1.31778347733053</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:6">
+    <row r="335" spans="1:6">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0.295766601014475</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:6">
+    <row r="336" spans="1:6">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0.0085821749265551</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:6">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>-0.0769556547836421</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:6">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>-0.109951085270186</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:6">
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>-0.11758353705738</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:6">
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>-0.109514801978341</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:6">
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>-32.9431605787454</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:6">
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>27.585461310141</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:6">
+    <row r="343" spans="1:6">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>7.08527839422566</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:6">
+    <row r="344" spans="1:6">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>1.7031238715043</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:6">
+    <row r="345" spans="1:6">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0.432485591444522</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:6">
+    <row r="346" spans="1:6">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0.10597092554316</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:6">
+    <row r="347" spans="1:6">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>-0.0471673415248514</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:6">
+    <row r="348" spans="1:6">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>-0.0507277665674297</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:6">
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>-0.0759712211161034</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:6">
+    <row r="350" spans="1:6">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>-0.0897272432728261</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:6">
+    <row r="351" spans="1:6">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>-31.5138849169041</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:6">
+    <row r="352" spans="1:6">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>8.32977593713062</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:6">
+    <row r="353" spans="1:6">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0.603238728477288</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:6">
+    <row r="354" spans="1:6">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>-0.733692751604128</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:6">
+    <row r="355" spans="1:6">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>-0.789944908163127</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:6">
+    <row r="356" spans="1:6">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>-0.727005075761973</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:6">
+    <row r="357" spans="1:6">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>-0.512110125430625</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:6">
+    <row r="358" spans="1:6">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>-0.240043646795249</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:6">
+    <row r="359" spans="1:6">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>-0.239276617868767</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:6">
+    <row r="360" spans="1:6">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>-0.190171693856452</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:6">
+    <row r="361" spans="1:6">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>-12.7329539924091</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:6">
+    <row r="372" spans="1:6">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>17.7156701687176</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:6">
+    <row r="373" spans="1:6">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>3.58927419479396</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:6">
+    <row r="374" spans="1:6">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>0.720428732995649</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:6">
+    <row r="375" spans="1:6">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>-0.0819559706809462</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:6">
+    <row r="376" spans="1:6">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>-0.276155108818746</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:6">
+    <row r="377" spans="1:6">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>-0.327012997002335</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:6">
+    <row r="378" spans="1:6">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>-0.258401487073021</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:6">
+    <row r="379" spans="1:6">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>-0.185973844605656</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:6">
+    <row r="380" spans="1:6">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>-0.190240593308465</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:6">
+    <row r="381" spans="1:6">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>-24.0639409947229</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:6">
+    <row r="382" spans="1:6">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>22.94059501095</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:6">
+    <row r="383" spans="1:6">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>4.33603284640407</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:6">
+    <row r="384" spans="1:6">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>1.08349433531038</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:6">
+    <row r="385" spans="1:6">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>0.11762972132815</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:6">
+    <row r="386" spans="1:6">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>-0.151589632650314</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:6">
+    <row r="387" spans="1:6">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>-0.231945075355794</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="1:6">
+    <row r="388" spans="1:6">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>-0.233606853915035</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:6">
+    <row r="389" spans="1:6">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>-0.231974103173541</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:6">
+    <row r="390" spans="1:6">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>-0.204456310464423</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:6">
+    <row r="391" spans="1:6">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>-28.0035112697034</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:6">
+    <row r="392" spans="1:6">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>23.7828149608621</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:6">
+    <row r="393" spans="1:6">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>4.68806409226078</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:6">
+    <row r="394" spans="1:6">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>1.2732213086539</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:6">
+    <row r="395" spans="1:6">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>0.23004349046496</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:6">
+    <row r="396" spans="1:6">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>-0.0788661356226914</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:6">
+    <row r="397" spans="1:6">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>-0.169430525414904</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:6">
+    <row r="398" spans="1:6">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>-0.181434795980855</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:6">
+    <row r="399" spans="1:6">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>-0.178458825801226</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:6">
+    <row r="400" spans="1:6">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>-0.164360710527543</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:6">
+    <row r="401" spans="1:6">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>-32.3623069982465</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:6">
+    <row r="402" spans="1:6">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>8.28192491728025</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:6">
+    <row r="403" spans="1:6">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>0.580532166240949</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:6">
+    <row r="404" spans="1:6">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>-0.583810643225602</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:6">
+    <row r="405" spans="1:6">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>-0.872372837861991</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:6">
+    <row r="406" spans="1:6">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>-0.607916749382703</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:6">
+    <row r="407" spans="1:6">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>-0.46114333053787</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:6">
+    <row r="408" spans="1:6">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>-0.398068907645758</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:6">
+    <row r="409" spans="1:6">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>-0.340940990091322</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:6">
+    <row r="410" spans="1:6">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>-0.273653142409554</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:6">
+    <row r="411" spans="1:6">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>-13.7890816829569</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:6">
+    <row r="422" spans="1:6">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>16.0569586469954</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:6">
+    <row r="423" spans="1:6">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>3.74006366723736</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:6">
+    <row r="424" spans="1:6">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>0.87590726828472</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:6">
+    <row r="425" spans="1:6">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>0.246376152374251</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:6">
+    <row r="426" spans="1:6">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>0.0435991450212106</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:6">
+    <row r="427" spans="1:6">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>-0.0610446515867197</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:6">
+    <row r="428" spans="1:6">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>-0.347607449776071</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:6">
+    <row r="429" spans="1:6">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>0.0757418525156148</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:6">
+    <row r="430" spans="1:6">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>-0.176055720756972</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:6">
+    <row r="431" spans="1:6">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>-21.1773783158965</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:6">
+    <row r="432" spans="1:6">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>17.4840353206103</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:6">
+    <row r="433" spans="1:6">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>4.21821750129349</v>
       </c>
     </row>
-    <row r="434" hidden="1" spans="1:6">
+    <row r="434" spans="1:6">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>1.135444049671</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:6">
+    <row r="435" spans="1:6">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>0.137655949967857</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:6">
+    <row r="436" spans="1:6">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>-0.189307201598504</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:6">
+    <row r="437" spans="1:6">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>-0.169162835566176</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:6">
+    <row r="438" spans="1:6">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>-0.157688184501362</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:6">
+    <row r="439" spans="1:6">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>-0.158699611013473</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:6">
+    <row r="440" spans="1:6">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>-0.184786056511823</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:6">
+    <row r="441" spans="1:6">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>-25.2611644224351</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:6">
+    <row r="442" spans="1:6">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>27.8702777466148</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:6">
+    <row r="443" spans="1:6">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>5.80606557708193</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:6">
+    <row r="444" spans="1:6">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>1.76146745036649</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:6">
+    <row r="445" spans="1:6">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>0.512802512838403</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:6">
+    <row r="446" spans="1:6">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>0.189602625796436</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:6">
+    <row r="447" spans="1:6">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>0.0495795827278617</v>
       </c>
     </row>
-    <row r="448" hidden="1" spans="1:6">
+    <row r="448" spans="1:6">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>-0.0640716229803764</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:6">
+    <row r="449" spans="1:6">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>-0.081852213575578</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:6">
+    <row r="450" spans="1:6">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>-0.0800745104342138</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:6">
+    <row r="451" spans="1:6">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>-36.8299708896618</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:6">
+    <row r="452" spans="1:6">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>7.45000042039913</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:6">
+    <row r="453" spans="1:6">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0.371346823952558</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:6">
+    <row r="454" spans="1:6">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>-0.897860757478491</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:6">
+    <row r="455" spans="1:6">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>-1.02309086175489</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:6">
+    <row r="456" spans="1:6">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>-0.951744036607655</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:6">
+    <row r="457" spans="1:6">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>-0.723907781342804</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:6">
+    <row r="458" spans="1:6">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>-0.617083223146434</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:6">
+    <row r="459" spans="1:6">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>-0.310987600958433</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:6">
+    <row r="460" spans="1:6">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>-0.203144859870546</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="1:6">
+    <row r="461" spans="1:6">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>-8.86000989419964</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:6">
+    <row r="472" spans="1:6">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>13.7464788083283</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:6">
+    <row r="473" spans="1:6">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>3.35190659533123</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:6">
+    <row r="474" spans="1:6">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>0.643188365247742</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:6">
+    <row r="475" spans="1:6">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>-0.200461763554344</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:6">
+    <row r="476" spans="1:6">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>-0.409190431339415</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:6">
+    <row r="477" spans="1:6">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>-0.484699547063852</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="1:6">
+    <row r="478" spans="1:6">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>-0.492655768396343</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:6">
+    <row r="479" spans="1:6">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>-0.450086881445344</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:6">
+    <row r="480" spans="1:6">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>-0.412088447855339</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:6">
+    <row r="481" spans="1:6">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>-14.8255764949363</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:6">
+    <row r="482" spans="1:6">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>20.4401601457191</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:6">
+    <row r="483" spans="1:6">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>4.71902511961271</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:6">
+    <row r="484" spans="1:6">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>1.42166025136951</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="1:6">
+    <row r="485" spans="1:6">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>0.29810115107143</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:6">
+    <row r="486" spans="1:6">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>-0.0987626999061477</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:6">
+    <row r="487" spans="1:6">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>-0.228772974002092</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:6">
+    <row r="488" spans="1:6">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>-0.263433633770884</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:6">
+    <row r="489" spans="1:6">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>-0.260282909847747</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:6">
+    <row r="490" spans="1:6">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>-0.238588403611315</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:6">
+    <row r="491" spans="1:6">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>-28.5856741465894</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:6">
+    <row r="492" spans="1:6">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>19.452119838068</v>
       </c>
     </row>
-    <row r="493" hidden="1" spans="1:6">
+    <row r="493" spans="1:6">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>4.85431088540411</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:6">
+    <row r="494" spans="1:6">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>1.58383494973102</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:6">
+    <row r="495" spans="1:6">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>0.419974706045436</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:6">
+    <row r="496" spans="1:6">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>0.143193821987928</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:6">
+    <row r="497" spans="1:6">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>0.0147320629919144</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:6">
+    <row r="498" spans="1:6">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>-0.0890932226073081</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:6">
+    <row r="499" spans="1:6">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>-0.105158509433043</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:6">
+    <row r="500" spans="1:6">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>-0.113729890552426</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:6">
+    <row r="501" spans="1:6">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>-34.4386310842835</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:6">
+    <row r="502" spans="1:6">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>6.77950163947799</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:6">
+    <row r="503" spans="1:6">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>0.0565589728133715</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:6">
+    <row r="504" spans="1:6">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>-1.13361980452452</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:6">
+    <row r="505" spans="1:6">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>-1.2350149717352</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:6">
+    <row r="506" spans="1:6">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>-1.03102267063246</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:6">
+    <row r="507" spans="1:6">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>-0.805219548750675</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:6">
+    <row r="508" spans="1:6">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>-0.660522218540256</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:6">
+    <row r="509" spans="1:6">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>-0.556121939991415</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:6">
+    <row r="510" spans="1:6">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>-0.430048475475937</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:6">
+    <row r="511" spans="1:6">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>-1.33050985466572</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:6">
+    <row r="522" spans="1:6">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>14.8486067777954</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:6">
+    <row r="523" spans="1:6">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>3.80409479939493</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:6">
+    <row r="524" spans="1:6">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>0.988310566740811</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:6">
+    <row r="525" spans="1:6">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>0.0367741817249592</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:6">
+    <row r="526" spans="1:6">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>-0.280692827274356</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:6">
+    <row r="527" spans="1:6">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>-0.317906368846244</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:6">
+    <row r="528" spans="1:6">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>0.294111494691372</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:6">
+    <row r="529" spans="1:6">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>-0.880577478545328</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:6">
+    <row r="530" spans="1:6">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>-0.242678868047808</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:6">
+    <row r="531" spans="1:6">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>-18.8760471773744</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:6">
+    <row r="532" spans="1:6">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>14.8635130394023</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:6">
+    <row r="533" spans="1:6">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>4.09980654153601</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:6">
+    <row r="534" spans="1:6">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>1.18133366757476</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="1:6">
+    <row r="535" spans="1:6">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>0.142505053389827</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:6">
+    <row r="536" spans="1:6">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>-0.221108343792246</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:6">
+    <row r="537" spans="1:6">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>-0.334421713969684</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:6">
+    <row r="538" spans="1:6">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>-0.375609294530742</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:6">
+    <row r="539" spans="1:6">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>-0.381018859469131</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:6">
+    <row r="540" spans="1:6">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>-0.366398264508815</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:6">
+    <row r="541" spans="1:6">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>-20.0739544864199</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:6">
+    <row r="542" spans="1:6">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>22.0955942732811</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:6">
+    <row r="543" spans="1:6">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>5.25181036528198</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:6">
+    <row r="544" spans="1:6">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>1.84086134813307</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:6">
+    <row r="545" spans="1:6">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>0.584143537137507</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:6">
+    <row r="546" spans="1:6">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>0.0892949982683199</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:6">
+    <row r="547" spans="1:6">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>-0.107624097670089</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:6">
+    <row r="548" spans="1:6">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>-0.188123798951084</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:6">
+    <row r="549" spans="1:6">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>-0.216681829866574</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:6">
+    <row r="550" spans="1:6">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>-0.195899482586853</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:6">
+    <row r="551" spans="1:6">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>-35.5858232379559</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="1:6">
+    <row r="552" spans="1:6">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>6.83662025328031</v>
       </c>
     </row>
-    <row r="553" hidden="1" spans="1:6">
+    <row r="553" spans="1:6">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>0.287307322155581</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="1:6">
+    <row r="554" spans="1:6">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>-1.04605214296785</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:6">
+    <row r="555" spans="1:6">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>-1.22702886323442</v>
       </c>
     </row>
-    <row r="556" hidden="1" spans="1:6">
+    <row r="556" spans="1:6">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>-1.03282345505632</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:6">
+    <row r="557" spans="1:6">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>-0.82075004096898</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:6">
+    <row r="558" spans="1:6">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>-0.742745672835253</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:6">
+    <row r="559" spans="1:6">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>-0.580758343206436</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="1:6">
+    <row r="560" spans="1:6">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>-0.505392631301222</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:6">
+    <row r="561" spans="1:6">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>-9.44113478742848</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:6">
+    <row r="572" spans="1:6">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>12.3451692258535</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:6">
+    <row r="573" spans="1:6">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>3.16483889641534</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:6">
+    <row r="574" spans="1:6">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>0.650425344128615</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:6">
+    <row r="575" spans="1:6">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>-0.172743923807655</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:6">
+    <row r="576" spans="1:6">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>-0.486985964369113</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:6">
+    <row r="577" spans="1:6">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>-0.574499289085577</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="1:6">
+    <row r="578" spans="1:6">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>-0.551882630946658</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="1:6">
+    <row r="579" spans="1:6">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>-0.509177155820778</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="1:6">
+    <row r="580" spans="1:6">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>-0.435908363826673</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="1:6">
+    <row r="581" spans="1:6">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>-10.7418391287482</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:6">
+    <row r="582" spans="1:6">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>16.1071723640993</v>
       </c>
     </row>
-    <row r="583" hidden="1" spans="1:6">
+    <row r="583" spans="1:6">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>4.47544275308531</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="1:6">
+    <row r="584" spans="1:6">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>1.45222652459373</v>
       </c>
     </row>
-    <row r="585" hidden="1" spans="1:6">
+    <row r="585" spans="1:6">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0.350445134103373</v>
       </c>
     </row>
-    <row r="586" hidden="1" spans="1:6">
+    <row r="586" spans="1:6">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>-0.073251379419859</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="1:6">
+    <row r="587" spans="1:6">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>-0.255259702293047</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="1:6">
+    <row r="588" spans="1:6">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>-0.302633191955909</v>
       </c>
     </row>
-    <row r="589" hidden="1" spans="1:6">
+    <row r="589" spans="1:6">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>-0.34278435393845</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:6">
+    <row r="590" spans="1:6">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>-0.321123623125318</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="1:6">
+    <row r="591" spans="1:6">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>-23.0340690283173</v>
       </c>
     </row>
-    <row r="592" hidden="1" spans="1:6">
+    <row r="592" spans="1:6">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>25.1345292776306</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="1:6">
+    <row r="593" spans="1:6">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>5.7550627302187</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="1:6">
+    <row r="594" spans="1:6">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>2.1369508338179</v>
       </c>
     </row>
-    <row r="595" hidden="1" spans="1:6">
+    <row r="595" spans="1:6">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>0.798411736725545</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="1:6">
+    <row r="596" spans="1:6">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>0.248763668855932</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:6">
+    <row r="597" spans="1:6">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>-0.0118756056772528</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="1:6">
+    <row r="598" spans="1:6">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>-0.113388466781596</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="1:6">
+    <row r="599" spans="1:6">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>-0.163797104117227</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:6">
+    <row r="600" spans="1:6">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>-0.146076926359742</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:6">
+    <row r="601" spans="1:6">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>-40.3954739199557</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="1:6">
+    <row r="602" spans="1:6">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>5.60197539738401</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="1:6">
+    <row r="603" spans="1:6">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>-0.336696355806546</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:6">
+    <row r="604" spans="1:6">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>-1.46643633617618</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="1:6">
+    <row r="605" spans="1:6">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>-1.51164660697071</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="1:6">
+    <row r="606" spans="1:6">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>-1.27790793007459</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="1:6">
+    <row r="607" spans="1:6">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>-1.04374707804108</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="1:6">
+    <row r="608" spans="1:6">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>-0.875174076908179</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="1:6">
+    <row r="609" spans="1:6">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>-0.694584674665676</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="1:6">
+    <row r="610" spans="1:6">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>-0.564836528298967</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="1:6">
+    <row r="611" spans="1:6">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>-10.4315106860173</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="1:6">
+    <row r="622" spans="1:6">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>13.0506016537273</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:6">
+    <row r="623" spans="1:6">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>3.529653369888</v>
       </c>
     </row>
-    <row r="624" hidden="1" spans="1:6">
+    <row r="624" spans="1:6">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>0.902003168790922</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="1:6">
+    <row r="625" spans="1:6">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>0.00100897549299037</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="1:6">
+    <row r="626" spans="1:6">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>-0.322431635710311</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:6">
+    <row r="627" spans="1:6">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>-0.451410939082021</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="1:6">
+    <row r="628" spans="1:6">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>-1.85949306386369</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="1:6">
+    <row r="629" spans="1:6">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>-0.324421712088525</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="1:6">
+    <row r="630" spans="1:6">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>0.866486790309721</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:6">
+    <row r="631" spans="1:6">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>-13.5358513996192</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="1:6">
+    <row r="632" spans="1:6">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>18.158834210161</v>
       </c>
     </row>
-    <row r="633" hidden="1" spans="1:6">
+    <row r="633" spans="1:6">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>4.84794805587211</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:6">
+    <row r="634" spans="1:6">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1.75038751660483</v>
       </c>
     </row>
-    <row r="635" hidden="1" spans="1:6">
+    <row r="635" spans="1:6">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>0.534974257439455</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:6">
+    <row r="636" spans="1:6">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>0.0973275534283644</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:6">
+    <row r="637" spans="1:6">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>-0.141086805634478</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:6">
+    <row r="638" spans="1:6">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>-0.209126668805856</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="1:6">
+    <row r="639" spans="1:6">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>-0.260858884150471</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:6">
+    <row r="640" spans="1:6">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>-0.272926981611568</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="1:6">
+    <row r="641" spans="1:6">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>-25.1870985204193</v>
       </c>
     </row>
-    <row r="642" hidden="1" spans="1:6">
+    <row r="642" spans="1:6">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>14.7570456720145</v>
       </c>
     </row>
-    <row r="643" hidden="1" spans="1:6">
+    <row r="643" spans="1:6">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>4.5126626065406</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="1:6">
+    <row r="644" spans="1:6">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>1.63973496201395</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="1:6">
+    <row r="645" spans="1:6">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0.468972942659443</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="1:6">
+    <row r="646" spans="1:6">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>0.0332309002855951</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="1:6">
+    <row r="647" spans="1:6">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>-0.176292667492971</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="1:6">
+    <row r="648" spans="1:6">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>-0.261938487871743</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="1:6">
+    <row r="649" spans="1:6">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>-0.293643483885635</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="1:6">
+    <row r="650" spans="1:6">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>-0.308288155360766</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="1:6">
+    <row r="651" spans="1:6">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>-30.973174458532</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="1:6">
+    <row r="652" spans="1:6">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>6.39661176753574</v>
       </c>
     </row>
-    <row r="653" hidden="1" spans="1:6">
+    <row r="653" spans="1:6">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>0.0636160296529439</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="1:6">
+    <row r="654" spans="1:6">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>-1.30498247291576</v>
       </c>
     </row>
-    <row r="655" hidden="1" spans="1:6">
+    <row r="655" spans="1:6">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>-1.40224330956004</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="1:6">
+    <row r="656" spans="1:6">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>-1.2608141163093</v>
       </c>
     </row>
-    <row r="657" hidden="1" spans="1:6">
+    <row r="657" spans="1:6">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>-1.02481353075117</v>
       </c>
     </row>
-    <row r="658" hidden="1" spans="1:6">
+    <row r="658" spans="1:6">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>-0.865930927159206</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="1:6">
+    <row r="659" spans="1:6">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>-0.730348676209774</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="1:6">
+    <row r="660" spans="1:6">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>-0.621412597230398</v>
       </c>
     </row>
-    <row r="661" hidden="1" spans="1:6">
+    <row r="661" spans="1:6">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>0.210249774838195</v>
       </c>
     </row>
-    <row r="672" hidden="1" spans="1:6">
+    <row r="672" spans="1:6">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>13.7315243400022</v>
       </c>
     </row>
-    <row r="673" hidden="1" spans="1:6">
+    <row r="673" spans="1:6">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -15167,7 +15167,7 @@
         <v>3.70523354190225</v>
       </c>
     </row>
-    <row r="674" hidden="1" spans="1:6">
+    <row r="674" spans="1:6">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>1.04084654613598</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="1:6">
+    <row r="675" spans="1:6">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>0.0991116836209641</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="1:6">
+    <row r="676" spans="1:6">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>-0.273953578715382</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="1:6">
+    <row r="677" spans="1:6">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>-0.387724096800307</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="1:6">
+    <row r="678" spans="1:6">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>-0.446991525401288</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="1:6">
+    <row r="679" spans="1:6">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>-0.448261553791964</v>
       </c>
     </row>
-    <row r="680" hidden="1" spans="1:6">
+    <row r="680" spans="1:6">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>-0.421978847389321</v>
       </c>
     </row>
-    <row r="681" hidden="1" spans="1:6">
+    <row r="681" spans="1:6">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>-18.9960691839793</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:6">
+    <row r="682" spans="1:6">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>12.7321273130043</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="1:6">
+    <row r="683" spans="1:6">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>3.68867936724693</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="1:6">
+    <row r="684" spans="1:6">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>1.08297031029386</v>
       </c>
     </row>
-    <row r="685" hidden="1" spans="1:6">
+    <row r="685" spans="1:6">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>0.149429996425122</v>
       </c>
     </row>
-    <row r="686" hidden="1" spans="1:6">
+    <row r="686" spans="1:6">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>-0.2215546470281</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="1:6">
+    <row r="687" spans="1:6">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>-0.42274838912958</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="1:6">
+    <row r="688" spans="1:6">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>-0.456633744753884</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="1:6">
+    <row r="689" spans="1:6">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>-0.454939319137197</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:6">
+    <row r="690" spans="1:6">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>-0.435725496759142</v>
       </c>
     </row>
-    <row r="691" hidden="1" spans="1:6">
+    <row r="691" spans="1:6">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>-14.4797794999941</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="1:6">
+    <row r="692" spans="1:6">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>15.7296485841709</v>
       </c>
     </row>
-    <row r="693" hidden="1" spans="1:6">
+    <row r="693" spans="1:6">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>4.70842121981854</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="1:6">
+    <row r="694" spans="1:6">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>1.76052644587437</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="1:6">
+    <row r="695" spans="1:6">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>0.587211763009572</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="1:6">
+    <row r="696" spans="1:6">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>0.0993146576680921</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="1:6">
+    <row r="697" spans="1:6">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>-0.142097591633285</v>
       </c>
     </row>
-    <row r="698" hidden="1" spans="1:6">
+    <row r="698" spans="1:6">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>-0.240187890179617</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="1:6">
+    <row r="699" spans="1:6">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>-0.273645640862313</v>
       </c>
     </row>
-    <row r="700" hidden="1" spans="1:6">
+    <row r="700" spans="1:6">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>-0.299149829190262</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="1:6">
+    <row r="701" spans="1:6">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>-37.4778611223359</v>
       </c>
     </row>
-    <row r="702" hidden="1" spans="1:6">
+    <row r="702" spans="1:6">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>4.35578498099589</v>
       </c>
     </row>
-    <row r="703" hidden="1" spans="1:6">
+    <row r="703" spans="1:6">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>-0.985595612749751</v>
       </c>
     </row>
-    <row r="704" hidden="1" spans="1:6">
+    <row r="704" spans="1:6">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>-1.93430892028529</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="1:6">
+    <row r="705" spans="1:6">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>-1.88661950815172</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="1:6">
+    <row r="706" spans="1:6">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>-1.5990391787457</v>
       </c>
     </row>
-    <row r="707" hidden="1" spans="1:6">
+    <row r="707" spans="1:6">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>-1.2936398610325</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="1:6">
+    <row r="708" spans="1:6">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>-1.00608086705109</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="1:6">
+    <row r="709" spans="1:6">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>-0.856340196466359</v>
       </c>
     </row>
-    <row r="710" hidden="1" spans="1:6">
+    <row r="710" spans="1:6">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>-0.699620719110316</v>
       </c>
     </row>
-    <row r="711" hidden="1" spans="1:6">
+    <row r="711" spans="1:6">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>-8.36604957796883</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="1:6">
+    <row r="722" spans="1:6">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>10.5913933085762</v>
       </c>
     </row>
-    <row r="723" hidden="1" spans="1:6">
+    <row r="723" spans="1:6">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>2.61867263437585</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="1:6">
+    <row r="724" spans="1:6">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>0.415044305512745</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="1:6">
+    <row r="725" spans="1:6">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>-0.322382076963915</v>
       </c>
     </row>
-    <row r="726" hidden="1" spans="1:6">
+    <row r="726" spans="1:6">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>-0.63017402723694</v>
       </c>
     </row>
-    <row r="727" hidden="1" spans="1:6">
+    <row r="727" spans="1:6">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>-0.674611557089237</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="1:6">
+    <row r="728" spans="1:6">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>-0.636076219874397</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="1:6">
+    <row r="729" spans="1:6">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>-0.55567551932809</v>
       </c>
     </row>
-    <row r="730" hidden="1" spans="1:6">
+    <row r="730" spans="1:6">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>-0.568289877645774</v>
       </c>
     </row>
-    <row r="731" hidden="1" spans="1:6">
+    <row r="731" spans="1:6">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>-6.89826596660088</v>
       </c>
     </row>
-    <row r="732" hidden="1" spans="1:6">
+    <row r="732" spans="1:6">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>13.3619340627455</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="1:6">
+    <row r="733" spans="1:6">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>3.89073447417355</v>
       </c>
     </row>
-    <row r="734" hidden="1" spans="1:6">
+    <row r="734" spans="1:6">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>1.26308937486016</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="1:6">
+    <row r="735" spans="1:6">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>0.272111645742727</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="1:6">
+    <row r="736" spans="1:6">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>-0.151206710978219</v>
       </c>
     </row>
-    <row r="737" hidden="1" spans="1:6">
+    <row r="737" spans="1:6">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>-0.344266172105697</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="1:6">
+    <row r="738" spans="1:6">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>-0.411712672301478</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="1:6">
+    <row r="739" spans="1:6">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>-0.427409768061047</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="1:6">
+    <row r="740" spans="1:6">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>-0.41437855799498</v>
       </c>
     </row>
-    <row r="741" hidden="1" spans="1:6">
+    <row r="741" spans="1:6">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>-16.8480596247513</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:6">
+    <row r="742" spans="1:6">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>18.078157081146</v>
       </c>
     </row>
-    <row r="743" hidden="1" spans="1:6">
+    <row r="743" spans="1:6">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>4.97122678722556</v>
       </c>
     </row>
-    <row r="744" hidden="1" spans="1:6">
+    <row r="744" spans="1:6">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>1.94715450490893</v>
       </c>
     </row>
-    <row r="745" hidden="1" spans="1:6">
+    <row r="745" spans="1:6">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>0.748438053519805</v>
       </c>
     </row>
-    <row r="746" hidden="1" spans="1:6">
+    <row r="746" spans="1:6">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>0.201339990586701</v>
       </c>
     </row>
-    <row r="747" hidden="1" spans="1:6">
+    <row r="747" spans="1:6">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>-0.0545052162093277</v>
       </c>
     </row>
-    <row r="748" hidden="1" spans="1:6">
+    <row r="748" spans="1:6">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>-0.16746718456393</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="1:6">
+    <row r="749" spans="1:6">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>-0.227791595370788</v>
       </c>
     </row>
-    <row r="750" hidden="1" spans="1:6">
+    <row r="750" spans="1:6">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>-0.263704305764291</v>
       </c>
     </row>
-    <row r="751" hidden="1" spans="1:6">
+    <row r="751" spans="1:6">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>-37.7684391182344</v>
       </c>
     </row>
-    <row r="752" hidden="1" spans="1:6">
+    <row r="752" spans="1:6">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>5.14006645692145</v>
       </c>
     </row>
-    <row r="753" hidden="1" spans="1:6">
+    <row r="753" spans="1:6">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>-0.563034552488485</v>
       </c>
     </row>
-    <row r="754" hidden="1" spans="1:6">
+    <row r="754" spans="1:6">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>-1.61612882200864</v>
       </c>
     </row>
-    <row r="755" hidden="1" spans="1:6">
+    <row r="755" spans="1:6">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>-1.661109175257</v>
       </c>
     </row>
-    <row r="756" hidden="1" spans="1:6">
+    <row r="756" spans="1:6">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>-1.39976391124212</v>
       </c>
     </row>
-    <row r="757" hidden="1" spans="1:6">
+    <row r="757" spans="1:6">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>-1.1021872214492</v>
       </c>
     </row>
-    <row r="758" hidden="1" spans="1:6">
+    <row r="758" spans="1:6">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>-0.912378814015939</v>
       </c>
     </row>
-    <row r="759" hidden="1" spans="1:6">
+    <row r="759" spans="1:6">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>-0.702667184805471</v>
       </c>
     </row>
-    <row r="760" hidden="1" spans="1:6">
+    <row r="760" spans="1:6">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>-0.628291218464756</v>
       </c>
     </row>
-    <row r="761" hidden="1" spans="1:6">
+    <row r="761" spans="1:6">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>-10.2914578900385</v>
       </c>
     </row>
-    <row r="772" hidden="1" spans="1:6">
+    <row r="772" spans="1:6">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>11.0572386701609</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="1:6">
+    <row r="773" spans="1:6">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>2.79595043908182</v>
       </c>
     </row>
-    <row r="774" hidden="1" spans="1:6">
+    <row r="774" spans="1:6">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>0.585554378261658</v>
       </c>
     </row>
-    <row r="775" hidden="1" spans="1:6">
+    <row r="775" spans="1:6">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>-0.20212931862658</v>
       </c>
     </row>
-    <row r="776" hidden="1" spans="1:6">
+    <row r="776" spans="1:6">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>-0.550040199712583</v>
       </c>
     </row>
-    <row r="777" hidden="1" spans="1:6">
+    <row r="777" spans="1:6">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>-0.601905289392307</v>
       </c>
     </row>
-    <row r="778" hidden="1" spans="1:6">
+    <row r="778" spans="1:6">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>-0.599993460472163</v>
       </c>
     </row>
-    <row r="779" hidden="1" spans="1:6">
+    <row r="779" spans="1:6">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>-0.554942753338647</v>
       </c>
     </row>
-    <row r="780" hidden="1" spans="1:6">
+    <row r="780" spans="1:6">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -17414,7 +17414,7 @@
         <v>-0.543194053083228</v>
       </c>
     </row>
-    <row r="781" hidden="1" spans="1:6">
+    <row r="781" spans="1:6">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -17435,7 +17435,7 @@
         <v>-8.49003017446281</v>
       </c>
     </row>
-    <row r="782" hidden="1" spans="1:6">
+    <row r="782" spans="1:6">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>14.0955116637445</v>
       </c>
     </row>
-    <row r="783" hidden="1" spans="1:6">
+    <row r="783" spans="1:6">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>4.11990256459631</v>
       </c>
     </row>
-    <row r="784" hidden="1" spans="1:6">
+    <row r="784" spans="1:6">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>1.38922088626197</v>
       </c>
     </row>
-    <row r="785" hidden="1" spans="1:6">
+    <row r="785" spans="1:6">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>0.429883291266418</v>
       </c>
     </row>
-    <row r="786" hidden="1" spans="1:6">
+    <row r="786" spans="1:6">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>-0.0596593050029941</v>
       </c>
     </row>
-    <row r="787" hidden="1" spans="1:6">
+    <row r="787" spans="1:6">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>-0.256135343011787</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="1:6">
+    <row r="788" spans="1:6">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>-0.333702301351806</v>
       </c>
     </row>
-    <row r="789" hidden="1" spans="1:6">
+    <row r="789" spans="1:6">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>-0.371978324702012</v>
       </c>
     </row>
-    <row r="790" hidden="1" spans="1:6">
+    <row r="790" spans="1:6">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>-0.376841097648232</v>
       </c>
     </row>
-    <row r="791" hidden="1" spans="1:6">
+    <row r="791" spans="1:6">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>-19.1439497861725</v>
       </c>
     </row>
-    <row r="792" hidden="1" spans="1:6">
+    <row r="792" spans="1:6">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>20.2996954960533</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="1:6">
+    <row r="793" spans="1:6">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>5.23896638269214</v>
       </c>
     </row>
-    <row r="794" hidden="1" spans="1:6">
+    <row r="794" spans="1:6">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>2.12405431573117</v>
       </c>
     </row>
-    <row r="795" hidden="1" spans="1:6">
+    <row r="795" spans="1:6">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>0.875626788679449</v>
       </c>
     </row>
-    <row r="796" hidden="1" spans="1:6">
+    <row r="796" spans="1:6">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>0.320117725806561</v>
       </c>
     </row>
-    <row r="797" hidden="1" spans="1:6">
+    <row r="797" spans="1:6">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -17771,7 +17771,7 @@
         <v>0.0339275743662016</v>
       </c>
     </row>
-    <row r="798" hidden="1" spans="1:6">
+    <row r="798" spans="1:6">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>-0.0999682692335473</v>
       </c>
     </row>
-    <row r="799" hidden="1" spans="1:6">
+    <row r="799" spans="1:6">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>-0.185458726820093</v>
       </c>
     </row>
-    <row r="800" hidden="1" spans="1:6">
+    <row r="800" spans="1:6">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>-0.204334386727122</v>
       </c>
     </row>
-    <row r="801" hidden="1" spans="1:6">
+    <row r="801" spans="1:6">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>-38.1073056601855</v>
       </c>
     </row>
-    <row r="802" hidden="1" spans="1:6">
+    <row r="802" spans="1:6">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>5.46208794744306</v>
       </c>
     </row>
-    <row r="803" hidden="1" spans="1:6">
+    <row r="803" spans="1:6">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>-0.311203645019473</v>
       </c>
     </row>
-    <row r="804" hidden="1" spans="1:6">
+    <row r="804" spans="1:6">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>-1.49800617759528</v>
       </c>
     </row>
-    <row r="805" hidden="1" spans="1:6">
+    <row r="805" spans="1:6">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>-1.6637731192028</v>
       </c>
     </row>
-    <row r="806" hidden="1" spans="1:6">
+    <row r="806" spans="1:6">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>-1.31166220631988</v>
       </c>
     </row>
-    <row r="807" hidden="1" spans="1:6">
+    <row r="807" spans="1:6">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>-1.17724387247447</v>
       </c>
     </row>
-    <row r="808" hidden="1" spans="1:6">
+    <row r="808" spans="1:6">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>-0.935496863848564</v>
       </c>
     </row>
-    <row r="809" hidden="1" spans="1:6">
+    <row r="809" spans="1:6">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>-1.08762078785815</v>
       </c>
     </row>
-    <row r="810" hidden="1" spans="1:6">
+    <row r="810" spans="1:6">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>-0.443781949807136</v>
       </c>
     </row>
-    <row r="811" hidden="1" spans="1:6">
+    <row r="811" spans="1:6">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>3.92789025191929</v>
       </c>
     </row>
-    <row r="822" hidden="1" spans="1:6">
+    <row r="822" spans="1:6">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>11.5260787218389</v>
       </c>
     </row>
-    <row r="823" hidden="1" spans="1:6">
+    <row r="823" spans="1:6">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>3.0347718338992</v>
       </c>
     </row>
-    <row r="824" hidden="1" spans="1:6">
+    <row r="824" spans="1:6">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>0.688853738465849</v>
       </c>
     </row>
-    <row r="825" hidden="1" spans="1:6">
+    <row r="825" spans="1:6">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>-0.0597358070846779</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="1:6">
+    <row r="826" spans="1:6">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>-0.4229449026133</v>
       </c>
     </row>
-    <row r="827" hidden="1" spans="1:6">
+    <row r="827" spans="1:6">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>-0.504843033733583</v>
       </c>
     </row>
-    <row r="828" hidden="1" spans="1:6">
+    <row r="828" spans="1:6">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>-0.537552400032828</v>
       </c>
     </row>
-    <row r="829" hidden="1" spans="1:6">
+    <row r="829" spans="1:6">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>-0.530655428947781</v>
       </c>
     </row>
-    <row r="830" hidden="1" spans="1:6">
+    <row r="830" spans="1:6">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>-0.460657506115804</v>
       </c>
     </row>
-    <row r="831" hidden="1" spans="1:6">
+    <row r="831" spans="1:6">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>-9.99510540574287</v>
       </c>
     </row>
-    <row r="832" hidden="1" spans="1:6">
+    <row r="832" spans="1:6">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>14.9927238722616</v>
       </c>
     </row>
-    <row r="833" hidden="1" spans="1:6">
+    <row r="833" spans="1:6">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>4.33792743276037</v>
       </c>
     </row>
-    <row r="834" hidden="1" spans="1:6">
+    <row r="834" spans="1:6">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>1.58752706536587</v>
       </c>
     </row>
-    <row r="835" hidden="1" spans="1:6">
+    <row r="835" spans="1:6">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>0.516043366106206</v>
       </c>
     </row>
-    <row r="836" hidden="1" spans="1:6">
+    <row r="836" spans="1:6">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>0.062077500718444</v>
       </c>
     </row>
-    <row r="837" hidden="1" spans="1:6">
+    <row r="837" spans="1:6">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>-0.164038362038281</v>
       </c>
     </row>
-    <row r="838" hidden="1" spans="1:6">
+    <row r="838" spans="1:6">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>-0.275902288561663</v>
       </c>
     </row>
-    <row r="839" hidden="1" spans="1:6">
+    <row r="839" spans="1:6">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>-0.333290416110251</v>
       </c>
     </row>
-    <row r="840" hidden="1" spans="1:6">
+    <row r="840" spans="1:6">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>-0.320045050511561</v>
       </c>
     </row>
-    <row r="841" hidden="1" spans="1:6">
+    <row r="841" spans="1:6">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>-21.9776217018455</v>
       </c>
     </row>
-    <row r="842" hidden="1" spans="1:6">
+    <row r="842" spans="1:6">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>11.1716099643617</v>
       </c>
     </row>
-    <row r="843" hidden="1" spans="1:6">
+    <row r="843" spans="1:6">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>3.45606248903555</v>
       </c>
     </row>
-    <row r="844" hidden="1" spans="1:6">
+    <row r="844" spans="1:6">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>1.12046771868697</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="1:6">
+    <row r="845" spans="1:6">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>0.192418261722324</v>
       </c>
     </row>
-    <row r="846" hidden="1" spans="1:6">
+    <row r="846" spans="1:6">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>-0.227372853672067</v>
       </c>
     </row>
-    <row r="847" hidden="1" spans="1:6">
+    <row r="847" spans="1:6">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>-0.431017777579983</v>
       </c>
     </row>
-    <row r="848" hidden="1" spans="1:6">
+    <row r="848" spans="1:6">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>-0.471512003931059</v>
       </c>
     </row>
-    <row r="849" hidden="1" spans="1:6">
+    <row r="849" spans="1:6">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>-0.446002794295041</v>
       </c>
     </row>
-    <row r="850" hidden="1" spans="1:6">
+    <row r="850" spans="1:6">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>-0.430368911670633</v>
       </c>
     </row>
-    <row r="851" hidden="1" spans="1:6">
+    <row r="851" spans="1:6">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>-30.8046476377891</v>
       </c>
     </row>
-    <row r="852" hidden="1" spans="1:6">
+    <row r="852" spans="1:6">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>3.47242203431813</v>
       </c>
     </row>
-    <row r="853" hidden="1" spans="1:6">
+    <row r="853" spans="1:6">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>-1.47710963253859</v>
       </c>
     </row>
-    <row r="854" hidden="1" spans="1:6">
+    <row r="854" spans="1:6">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>-2.38762409888241</v>
       </c>
     </row>
-    <row r="855" hidden="1" spans="1:6">
+    <row r="855" spans="1:6">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>-2.37036810416577</v>
       </c>
     </row>
-    <row r="856" hidden="1" spans="1:6">
+    <row r="856" spans="1:6">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>-2.03919345158347</v>
       </c>
     </row>
-    <row r="857" hidden="1" spans="1:6">
+    <row r="857" spans="1:6">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>-1.514756103563</v>
       </c>
     </row>
-    <row r="858" hidden="1" spans="1:6">
+    <row r="858" spans="1:6">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>-1.34509379191856</v>
       </c>
     </row>
-    <row r="859" hidden="1" spans="1:6">
+    <row r="859" spans="1:6">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>-1.04925620465485</v>
       </c>
     </row>
-    <row r="860" hidden="1" spans="1:6">
+    <row r="860" spans="1:6">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>-0.929257786672264</v>
       </c>
     </row>
-    <row r="861" hidden="1" spans="1:6">
+    <row r="861" spans="1:6">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>1.73047952326948</v>
       </c>
     </row>
-    <row r="872" hidden="1" spans="1:6">
+    <row r="872" spans="1:6">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>12.3727628007419</v>
       </c>
     </row>
-    <row r="873" hidden="1" spans="1:6">
+    <row r="873" spans="1:6">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>3.37424206816883</v>
       </c>
     </row>
-    <row r="874" hidden="1" spans="1:6">
+    <row r="874" spans="1:6">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>0.923307942942726</v>
       </c>
     </row>
-    <row r="875" hidden="1" spans="1:6">
+    <row r="875" spans="1:6">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>0.028941680249799</v>
       </c>
     </row>
-    <row r="876" hidden="1" spans="1:6">
+    <row r="876" spans="1:6">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -19430,7 +19430,7 @@
         <v>-0.317502733326063</v>
       </c>
     </row>
-    <row r="877" hidden="1" spans="1:6">
+    <row r="877" spans="1:6">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>-0.615314548971926</v>
       </c>
     </row>
-    <row r="878" hidden="1" spans="1:6">
+    <row r="878" spans="1:6">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>-0.500774479241123</v>
       </c>
     </row>
-    <row r="879" hidden="1" spans="1:6">
+    <row r="879" spans="1:6">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>-0.485092196680872</v>
       </c>
     </row>
-    <row r="880" hidden="1" spans="1:6">
+    <row r="880" spans="1:6">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>-0.468988849223392</v>
       </c>
     </row>
-    <row r="881" hidden="1" spans="1:6">
+    <row r="881" spans="1:6">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>-12.0782755768422</v>
       </c>
     </row>
-    <row r="882" hidden="1" spans="1:6">
+    <row r="882" spans="1:6">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>16.4290218335209</v>
       </c>
     </row>
-    <row r="883" hidden="1" spans="1:6">
+    <row r="883" spans="1:6">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>4.68093568064058</v>
       </c>
     </row>
-    <row r="884" hidden="1" spans="1:6">
+    <row r="884" spans="1:6">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -19598,7 +19598,7 @@
         <v>1.70737611245262</v>
       </c>
     </row>
-    <row r="885" hidden="1" spans="1:6">
+    <row r="885" spans="1:6">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>0.728938760929411</v>
       </c>
     </row>
-    <row r="886" hidden="1" spans="1:6">
+    <row r="886" spans="1:6">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>0.147534222261501</v>
       </c>
     </row>
-    <row r="887" hidden="1" spans="1:6">
+    <row r="887" spans="1:6">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>-0.102820331104008</v>
       </c>
     </row>
-    <row r="888" hidden="1" spans="1:6">
+    <row r="888" spans="1:6">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>-0.218472035101633</v>
       </c>
     </row>
-    <row r="889" hidden="1" spans="1:6">
+    <row r="889" spans="1:6">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>-0.306556996236046</v>
       </c>
     </row>
-    <row r="890" hidden="1" spans="1:6">
+    <row r="890" spans="1:6">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>-0.301482914551814</v>
       </c>
     </row>
-    <row r="891" hidden="1" spans="1:6">
+    <row r="891" spans="1:6">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>-24.1197779452723</v>
       </c>
     </row>
-    <row r="892" hidden="1" spans="1:6">
+    <row r="892" spans="1:6">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>11.6818849207265</v>
       </c>
     </row>
-    <row r="893" hidden="1" spans="1:6">
+    <row r="893" spans="1:6">
       <c r="A893" s="1">
         <v>892</v>
       </c>
@@ -19787,7 +19787,7 @@
         <v>3.65892309962683</v>
       </c>
     </row>
-    <row r="894" hidden="1" spans="1:6">
+    <row r="894" spans="1:6">
       <c r="A894" s="1">
         <v>893</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>1.23748502442223</v>
       </c>
     </row>
-    <row r="895" hidden="1" spans="1:6">
+    <row r="895" spans="1:6">
       <c r="A895" s="1">
         <v>894</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>0.281493576022852</v>
       </c>
     </row>
-    <row r="896" hidden="1" spans="1:6">
+    <row r="896" spans="1:6">
       <c r="A896" s="1">
         <v>895</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>-0.152047350301881</v>
       </c>
     </row>
-    <row r="897" hidden="1" spans="1:6">
+    <row r="897" spans="1:6">
       <c r="A897" s="1">
         <v>896</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>-0.357039178008224</v>
       </c>
     </row>
-    <row r="898" hidden="1" spans="1:6">
+    <row r="898" spans="1:6">
       <c r="A898" s="1">
         <v>897</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>-0.419205038388771</v>
       </c>
     </row>
-    <row r="899" hidden="1" spans="1:6">
+    <row r="899" spans="1:6">
       <c r="A899" s="1">
         <v>898</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>-0.412290387556923</v>
       </c>
     </row>
-    <row r="900" hidden="1" spans="1:6">
+    <row r="900" spans="1:6">
       <c r="A900" s="1">
         <v>899</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>-0.407162709683305</v>
       </c>
     </row>
-    <row r="901" hidden="1" spans="1:6">
+    <row r="901" spans="1:6">
       <c r="A901" s="1">
         <v>900</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>-31.9089301986443</v>
       </c>
     </row>
-    <row r="902" hidden="1" spans="1:6">
+    <row r="902" spans="1:6">
       <c r="A902" s="1">
         <v>901</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>3.86028635522944</v>
       </c>
     </row>
-    <row r="903" hidden="1" spans="1:6">
+    <row r="903" spans="1:6">
       <c r="A903" s="1">
         <v>902</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>-1.34135792231329</v>
       </c>
     </row>
-    <row r="904" hidden="1" spans="1:6">
+    <row r="904" spans="1:6">
       <c r="A904" s="1">
         <v>903</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>-2.33584859692046</v>
       </c>
     </row>
-    <row r="905" hidden="1" spans="1:6">
+    <row r="905" spans="1:6">
       <c r="A905" s="1">
         <v>904</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>-2.10635714504243</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="1:6">
+    <row r="906" spans="1:6">
       <c r="A906" s="1">
         <v>905</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>-1.90271729866281</v>
       </c>
     </row>
-    <row r="907" hidden="1" spans="1:6">
+    <row r="907" spans="1:6">
       <c r="A907" s="1">
         <v>906</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>-1.51946435459025</v>
       </c>
     </row>
-    <row r="908" hidden="1" spans="1:6">
+    <row r="908" spans="1:6">
       <c r="A908" s="1">
         <v>907</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>-1.19130309525463</v>
       </c>
     </row>
-    <row r="909" hidden="1" spans="1:6">
+    <row r="909" spans="1:6">
       <c r="A909" s="1">
         <v>908</v>
       </c>
@@ -20123,7 +20123,7 @@
         <v>-1.06786556137035</v>
       </c>
     </row>
-    <row r="910" hidden="1" spans="1:6">
+    <row r="910" spans="1:6">
       <c r="A910" s="1">
         <v>909</v>
       </c>
@@ -20144,7 +20144,7 @@
         <v>-0.876154970417683</v>
       </c>
     </row>
-    <row r="911" hidden="1" spans="1:6">
+    <row r="911" spans="1:6">
       <c r="A911" s="1">
         <v>910</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>0.706804039787342</v>
       </c>
     </row>
-    <row r="922" hidden="1" spans="1:6">
+    <row r="922" spans="1:6">
       <c r="A922" s="1">
         <v>921</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>12.803107054652</v>
       </c>
     </row>
-    <row r="923" hidden="1" spans="1:6">
+    <row r="923" spans="1:6">
       <c r="A923" s="1">
         <v>922</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>3.55129285045157</v>
       </c>
     </row>
-    <row r="924" hidden="1" spans="1:6">
+    <row r="924" spans="1:6">
       <c r="A924" s="1">
         <v>923</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>1.05870964926798</v>
       </c>
     </row>
-    <row r="925" hidden="1" spans="1:6">
+    <row r="925" spans="1:6">
       <c r="A925" s="1">
         <v>924</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>0.128123303069466</v>
       </c>
     </row>
-    <row r="926" hidden="1" spans="1:6">
+    <row r="926" spans="1:6">
       <c r="A926" s="1">
         <v>925</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>-0.235647267516686</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="1:6">
+    <row r="927" spans="1:6">
       <c r="A927" s="1">
         <v>926</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>-0.388645367643912</v>
       </c>
     </row>
-    <row r="928" hidden="1" spans="1:6">
+    <row r="928" spans="1:6">
       <c r="A928" s="1">
         <v>927</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>-0.428112633846908</v>
       </c>
     </row>
-    <row r="929" hidden="1" spans="1:6">
+    <row r="929" spans="1:6">
       <c r="A929" s="1">
         <v>928</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>-0.436656112550007</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="1:6">
+    <row r="930" spans="1:6">
       <c r="A930" s="1">
         <v>929</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>-0.469249994759037</v>
       </c>
     </row>
-    <row r="931" hidden="1" spans="1:6">
+    <row r="931" spans="1:6">
       <c r="A931" s="1">
         <v>930</v>
       </c>
@@ -20585,7 +20585,7 @@
         <v>-17.3306613509379</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="1:6">
+    <row r="932" spans="1:6">
       <c r="A932" s="1">
         <v>931</v>
       </c>
@@ -20606,7 +20606,7 @@
         <v>10.4988184993325</v>
       </c>
     </row>
-    <row r="933" hidden="1" spans="1:6">
+    <row r="933" spans="1:6">
       <c r="A933" s="1">
         <v>932</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>3.09483322864452</v>
       </c>
     </row>
-    <row r="934" hidden="1" spans="1:6">
+    <row r="934" spans="1:6">
       <c r="A934" s="1">
         <v>933</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>0.718913109510555</v>
       </c>
     </row>
-    <row r="935" hidden="1" spans="1:6">
+    <row r="935" spans="1:6">
       <c r="A935" s="1">
         <v>934</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>-0.108912554589516</v>
       </c>
     </row>
-    <row r="936" hidden="1" spans="1:6">
+    <row r="936" spans="1:6">
       <c r="A936" s="1">
         <v>935</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>-0.415033572101551</v>
       </c>
     </row>
-    <row r="937" hidden="1" spans="1:6">
+    <row r="937" spans="1:6">
       <c r="A937" s="1">
         <v>936</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>-0.588589205312813</v>
       </c>
     </row>
-    <row r="938" hidden="1" spans="1:6">
+    <row r="938" spans="1:6">
       <c r="A938" s="1">
         <v>937</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>-0.563816856665684</v>
       </c>
     </row>
-    <row r="939" hidden="1" spans="1:6">
+    <row r="939" spans="1:6">
       <c r="A939" s="1">
         <v>938</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>-0.573911124523194</v>
       </c>
     </row>
-    <row r="940" hidden="1" spans="1:6">
+    <row r="940" spans="1:6">
       <c r="A940" s="1">
         <v>939</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>-0.475806340289938</v>
       </c>
     </row>
-    <row r="941" hidden="1" spans="1:6">
+    <row r="941" spans="1:6">
       <c r="A941" s="1">
         <v>940</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>-10.7962338506071</v>
       </c>
     </row>
-    <row r="942" hidden="1" spans="1:6">
+    <row r="942" spans="1:6">
       <c r="A942" s="1">
         <v>941</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>12.3461382650205</v>
       </c>
     </row>
-    <row r="943" hidden="1" spans="1:6">
+    <row r="943" spans="1:6">
       <c r="A943" s="1">
         <v>942</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>3.96216213829337</v>
       </c>
     </row>
-    <row r="944" hidden="1" spans="1:6">
+    <row r="944" spans="1:6">
       <c r="A944" s="1">
         <v>943</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>1.40467692617101</v>
       </c>
     </row>
-    <row r="945" hidden="1" spans="1:6">
+    <row r="945" spans="1:6">
       <c r="A945" s="1">
         <v>944</v>
       </c>
@@ -20879,7 +20879,7 @@
         <v>0.458306289345926</v>
       </c>
     </row>
-    <row r="946" hidden="1" spans="1:6">
+    <row r="946" spans="1:6">
       <c r="A946" s="1">
         <v>945</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>-0.0219422498558729</v>
       </c>
     </row>
-    <row r="947" hidden="1" spans="1:6">
+    <row r="947" spans="1:6">
       <c r="A947" s="1">
         <v>946</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>-0.254318701136909</v>
       </c>
     </row>
-    <row r="948" hidden="1" spans="1:6">
+    <row r="948" spans="1:6">
       <c r="A948" s="1">
         <v>947</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>0.15458125316143</v>
       </c>
     </row>
-    <row r="949" hidden="1" spans="1:6">
+    <row r="949" spans="1:6">
       <c r="A949" s="1">
         <v>948</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>-0.810199680735461</v>
       </c>
     </row>
-    <row r="950" hidden="1" spans="1:6">
+    <row r="950" spans="1:6">
       <c r="A950" s="1">
         <v>949</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>-0.353358338720122</v>
       </c>
     </row>
-    <row r="951" hidden="1" spans="1:6">
+    <row r="951" spans="1:6">
       <c r="A951" s="1">
         <v>950</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>-33.652532073238</v>
       </c>
     </row>
-    <row r="952" hidden="1" spans="1:6">
+    <row r="952" spans="1:6">
       <c r="A952" s="1">
         <v>951</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v>4.23550659351076</v>
       </c>
     </row>
-    <row r="953" hidden="1" spans="1:6">
+    <row r="953" spans="1:6">
       <c r="A953" s="1">
         <v>952</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>-1.13840110410551</v>
       </c>
     </row>
-    <row r="954" hidden="1" spans="1:6">
+    <row r="954" spans="1:6">
       <c r="A954" s="1">
         <v>953</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>-1.97701905585426</v>
       </c>
     </row>
-    <row r="955" hidden="1" spans="1:6">
+    <row r="955" spans="1:6">
       <c r="A955" s="1">
         <v>954</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>-2.11637409430662</v>
       </c>
     </row>
-    <row r="956" hidden="1" spans="1:6">
+    <row r="956" spans="1:6">
       <c r="A956" s="1">
         <v>955</v>
       </c>
@@ -21110,7 +21110,7 @@
         <v>-1.68337524167447</v>
       </c>
     </row>
-    <row r="957" hidden="1" spans="1:6">
+    <row r="957" spans="1:6">
       <c r="A957" s="1">
         <v>956</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>-1.43026844353668</v>
       </c>
     </row>
-    <row r="958" hidden="1" spans="1:6">
+    <row r="958" spans="1:6">
       <c r="A958" s="1">
         <v>957</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>-1.17315871193956</v>
       </c>
     </row>
-    <row r="959" hidden="1" spans="1:6">
+    <row r="959" spans="1:6">
       <c r="A959" s="1">
         <v>958</v>
       </c>
@@ -21173,7 +21173,7 @@
         <v>-0.96462243887391</v>
       </c>
     </row>
-    <row r="960" hidden="1" spans="1:6">
+    <row r="960" spans="1:6">
       <c r="A960" s="1">
         <v>959</v>
       </c>
@@ -21194,7 +21194,7 @@
         <v>-0.878233772404751</v>
       </c>
     </row>
-    <row r="961" hidden="1" spans="1:6">
+    <row r="961" spans="1:6">
       <c r="A961" s="1">
         <v>960</v>
       </c>
@@ -21425,7 +21425,7 @@
         <v>-6.40964994627951</v>
       </c>
     </row>
-    <row r="972" hidden="1" spans="1:6">
+    <row r="972" spans="1:6">
       <c r="A972" s="1">
         <v>971</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>8.84800571623262</v>
       </c>
     </row>
-    <row r="973" hidden="1" spans="1:6">
+    <row r="973" spans="1:6">
       <c r="A973" s="1">
         <v>972</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>2.04848157737595</v>
       </c>
     </row>
-    <row r="974" hidden="1" spans="1:6">
+    <row r="974" spans="1:6">
       <c r="A974" s="1">
         <v>973</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>0.0182866825582802</v>
       </c>
     </row>
-    <row r="975" hidden="1" spans="1:6">
+    <row r="975" spans="1:6">
       <c r="A975" s="1">
         <v>974</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>-0.723802259115018</v>
       </c>
     </row>
-    <row r="976" hidden="1" spans="1:6">
+    <row r="976" spans="1:6">
       <c r="A976" s="1">
         <v>975</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>-0.835846313284308</v>
       </c>
     </row>
-    <row r="977" hidden="1" spans="1:6">
+    <row r="977" spans="1:6">
       <c r="A977" s="1">
         <v>976</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>-0.874509055552048</v>
       </c>
     </row>
-    <row r="978" hidden="1" spans="1:6">
+    <row r="978" spans="1:6">
       <c r="A978" s="1">
         <v>977</v>
       </c>
@@ -21572,7 +21572,7 @@
         <v>-0.798112903425574</v>
       </c>
     </row>
-    <row r="979" hidden="1" spans="1:6">
+    <row r="979" spans="1:6">
       <c r="A979" s="1">
         <v>978</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>-0.708349227620995</v>
       </c>
     </row>
-    <row r="980" hidden="1" spans="1:6">
+    <row r="980" spans="1:6">
       <c r="A980" s="1">
         <v>979</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>-0.610329721109878</v>
       </c>
     </row>
-    <row r="981" hidden="1" spans="1:6">
+    <row r="981" spans="1:6">
       <c r="A981" s="1">
         <v>980</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>-3.67427491928197</v>
       </c>
     </row>
-    <row r="982" hidden="1" spans="1:6">
+    <row r="982" spans="1:6">
       <c r="A982" s="1">
         <v>981</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>10.9283533053639</v>
       </c>
     </row>
-    <row r="983" hidden="1" spans="1:6">
+    <row r="983" spans="1:6">
       <c r="A983" s="1">
         <v>982</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>3.27823894574429</v>
       </c>
     </row>
-    <row r="984" hidden="1" spans="1:6">
+    <row r="984" spans="1:6">
       <c r="A984" s="1">
         <v>983</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>0.934731148952046</v>
       </c>
     </row>
-    <row r="985" hidden="1" spans="1:6">
+    <row r="985" spans="1:6">
       <c r="A985" s="1">
         <v>984</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>-0.0449342299451716</v>
       </c>
     </row>
-    <row r="986" hidden="1" spans="1:6">
+    <row r="986" spans="1:6">
       <c r="A986" s="1">
         <v>985</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>-0.335332218511701</v>
       </c>
     </row>
-    <row r="987" hidden="1" spans="1:6">
+    <row r="987" spans="1:6">
       <c r="A987" s="1">
         <v>986</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>-0.513717500533082</v>
       </c>
     </row>
-    <row r="988" hidden="1" spans="1:6">
+    <row r="988" spans="1:6">
       <c r="A988" s="1">
         <v>987</v>
       </c>
@@ -21782,7 +21782,7 @@
         <v>-0.530089543214978</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="1:6">
+    <row r="989" spans="1:6">
       <c r="A989" s="1">
         <v>988</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>-0.489452306067367</v>
       </c>
     </row>
-    <row r="990" hidden="1" spans="1:6">
+    <row r="990" spans="1:6">
       <c r="A990" s="1">
         <v>989</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>-0.47381529238346</v>
       </c>
     </row>
-    <row r="991" hidden="1" spans="1:6">
+    <row r="991" spans="1:6">
       <c r="A991" s="1">
         <v>990</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>-11.8718606266931</v>
       </c>
     </row>
-    <row r="992" hidden="1" spans="1:6">
+    <row r="992" spans="1:6">
       <c r="A992" s="1">
         <v>991</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>12.7410853666769</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="1:6">
+    <row r="993" spans="1:6">
       <c r="A993" s="1">
         <v>992</v>
       </c>
@@ -21887,7 +21887,7 @@
         <v>4.33951484348383</v>
       </c>
     </row>
-    <row r="994" hidden="1" spans="1:6">
+    <row r="994" spans="1:6">
       <c r="A994" s="1">
         <v>993</v>
       </c>
@@ -21908,7 +21908,7 @@
         <v>1.59931909101832</v>
       </c>
     </row>
-    <row r="995" hidden="1" spans="1:6">
+    <row r="995" spans="1:6">
       <c r="A995" s="1">
         <v>994</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>0.504123634668234</v>
       </c>
     </row>
-    <row r="996" hidden="1" spans="1:6">
+    <row r="996" spans="1:6">
       <c r="A996" s="1">
         <v>995</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>0.0450870267160535</v>
       </c>
     </row>
-    <row r="997" hidden="1" spans="1:6">
+    <row r="997" spans="1:6">
       <c r="A997" s="1">
         <v>996</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>-0.16985005716619</v>
       </c>
     </row>
-    <row r="998" hidden="1" spans="1:6">
+    <row r="998" spans="1:6">
       <c r="A998" s="1">
         <v>997</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>-0.268729444369049</v>
       </c>
     </row>
-    <row r="999" hidden="1" spans="1:6">
+    <row r="999" spans="1:6">
       <c r="A999" s="1">
         <v>998</v>
       </c>
@@ -22013,7 +22013,7 @@
         <v>-0.307849870829317</v>
       </c>
     </row>
-    <row r="1000" hidden="1" spans="1:6">
+    <row r="1000" spans="1:6">
       <c r="A1000" s="1">
         <v>999</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>-0.320196158971937</v>
       </c>
     </row>
-    <row r="1001" hidden="1" spans="1:6">
+    <row r="1001" spans="1:6">
       <c r="A1001" s="1">
         <v>1000</v>
       </c>
@@ -22057,11 +22057,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1001">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="0.2"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
